--- a/user-data/dfis-out/dfis-out.xlsx
+++ b/user-data/dfis-out/dfis-out.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="343">
   <si>
     <t>id-from</t>
   </si>
@@ -1023,9 +1023,6 @@
     <t>Source: Development Initiatives calculations based on DFIs' annual reports and OECD DAC</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1408,32 +1405,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13">
@@ -1449,11 +1446,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/dfis-out/dfis-out.xlsx
+++ b/user-data/dfis-out/dfis-out.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="344">
   <si>
     <t>id-from</t>
   </si>
@@ -1035,7 +1035,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1448,6 +1451,11 @@
         <v>342</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>343</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/dfis-out/dfis-out.xlsx
+++ b/user-data/dfis-out/dfis-out.xlsx
@@ -90,7 +90,7 @@
     <t>GB</t>
   </si>
   <si>
-    <t>United Kingdom</t>
+    <t>UK</t>
   </si>
   <si>
     <t>JP</t>
@@ -156,7 +156,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -216,7 +216,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -241,12 +241,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -319,6 +313,12 @@
   </si>
   <si>
     <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>CU</t>
@@ -768,7 +768,7 @@
     <t>SH</t>
   </si>
   <si>
-    <t>Saint Helena, Ascension and Tristan da Cunha</t>
+    <t>Saint Helena, Ascension &amp; Tristan da Cunha</t>
   </si>
   <si>
     <t>KN</t>
@@ -786,7 +786,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -798,7 +798,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SN</t>
@@ -990,7 +990,7 @@
     <t>WF</t>
   </si>
   <si>
-    <t>Wallis and Futuna</t>
+    <t>Wallis &amp; Futuna</t>
   </si>
   <si>
     <t>YE</t>
@@ -1044,7 +1044,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -7567,7 +7567,7 @@
         <v>2012</v>
       </c>
       <c r="F305" t="n">
-        <v>25319940</v>
+        <v>28372605</v>
       </c>
     </row>
     <row r="306">
@@ -7647,7 +7647,7 @@
         <v>2012</v>
       </c>
       <c r="F309" t="n">
-        <v>87073000</v>
+        <v>12340000</v>
       </c>
     </row>
     <row r="310">
@@ -7787,7 +7787,7 @@
         <v>2012</v>
       </c>
       <c r="F316" t="n">
-        <v>0</v>
+        <v>7750000</v>
       </c>
     </row>
     <row r="317">
@@ -7867,7 +7867,7 @@
         <v>2012</v>
       </c>
       <c r="F320" t="n">
-        <v>28372605</v>
+        <v>13215000</v>
       </c>
     </row>
     <row r="321">
@@ -7947,7 +7947,7 @@
         <v>2012</v>
       </c>
       <c r="F324" t="n">
-        <v>12340000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -8087,7 +8087,7 @@
         <v>2012</v>
       </c>
       <c r="F331" t="n">
-        <v>7750000</v>
+        <v>375000</v>
       </c>
     </row>
     <row r="332">
@@ -8167,7 +8167,7 @@
         <v>2012</v>
       </c>
       <c r="F335" t="n">
-        <v>13215000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -8387,7 +8387,7 @@
         <v>2012</v>
       </c>
       <c r="F346" t="n">
-        <v>375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -9067,7 +9067,7 @@
         <v>2012</v>
       </c>
       <c r="F380" t="n">
-        <v>0</v>
+        <v>78378165</v>
       </c>
     </row>
     <row r="381">
@@ -9187,7 +9187,7 @@
         <v>2012</v>
       </c>
       <c r="F386" t="n">
-        <v>0</v>
+        <v>4880700000</v>
       </c>
     </row>
     <row r="387">
@@ -9287,7 +9287,7 @@
         <v>2012</v>
       </c>
       <c r="F391" t="n">
-        <v>0</v>
+        <v>164375000</v>
       </c>
     </row>
     <row r="392">
@@ -9367,7 +9367,7 @@
         <v>2012</v>
       </c>
       <c r="F395" t="n">
-        <v>78378165</v>
+        <v>118249295.4</v>
       </c>
     </row>
     <row r="396">
@@ -9387,7 +9387,7 @@
         <v>2012</v>
       </c>
       <c r="F396" t="n">
-        <v>0</v>
+        <v>20962400</v>
       </c>
     </row>
     <row r="397">
@@ -9447,7 +9447,7 @@
         <v>2012</v>
       </c>
       <c r="F399" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="400">
@@ -9487,7 +9487,7 @@
         <v>2012</v>
       </c>
       <c r="F401" t="n">
-        <v>4880700000</v>
+        <v>113900000</v>
       </c>
     </row>
     <row r="402">
@@ -9587,7 +9587,7 @@
         <v>2012</v>
       </c>
       <c r="F406" t="n">
-        <v>164375000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -9667,7 +9667,7 @@
         <v>2012</v>
       </c>
       <c r="F410" t="n">
-        <v>118249295.4</v>
+        <v>15025455</v>
       </c>
     </row>
     <row r="411">
@@ -9687,7 +9687,7 @@
         <v>2012</v>
       </c>
       <c r="F411" t="n">
-        <v>20962400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -9747,7 +9747,7 @@
         <v>2012</v>
       </c>
       <c r="F414" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -9787,7 +9787,7 @@
         <v>2012</v>
       </c>
       <c r="F416" t="n">
-        <v>113900000</v>
+        <v>201500000</v>
       </c>
     </row>
     <row r="417">
@@ -9887,7 +9887,7 @@
         <v>2012</v>
       </c>
       <c r="F421" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="422">
@@ -9967,7 +9967,7 @@
         <v>2012</v>
       </c>
       <c r="F425" t="n">
-        <v>15025455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -10087,7 +10087,7 @@
         <v>2012</v>
       </c>
       <c r="F431" t="n">
-        <v>201500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -10187,7 +10187,7 @@
         <v>2012</v>
       </c>
       <c r="F436" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
@@ -10267,7 +10267,7 @@
         <v>2012</v>
       </c>
       <c r="F440" t="n">
-        <v>0</v>
+        <v>4730970</v>
       </c>
     </row>
     <row r="441">
@@ -10567,7 +10567,7 @@
         <v>2012</v>
       </c>
       <c r="F455" t="n">
-        <v>4730970</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
@@ -10867,7 +10867,7 @@
         <v>2012</v>
       </c>
       <c r="F470" t="n">
-        <v>0</v>
+        <v>23787000</v>
       </c>
     </row>
     <row r="471">
@@ -10947,7 +10947,7 @@
         <v>2012</v>
       </c>
       <c r="F474" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="475">
@@ -11087,7 +11087,7 @@
         <v>2012</v>
       </c>
       <c r="F481" t="n">
-        <v>0</v>
+        <v>31631250</v>
       </c>
     </row>
     <row r="482">
@@ -11167,7 +11167,7 @@
         <v>2012</v>
       </c>
       <c r="F485" t="n">
-        <v>23787000</v>
+        <v>25319940</v>
       </c>
     </row>
     <row r="486">
@@ -11247,7 +11247,7 @@
         <v>2012</v>
       </c>
       <c r="F489" t="n">
-        <v>7000000</v>
+        <v>87073000</v>
       </c>
     </row>
     <row r="490">
@@ -11387,7 +11387,7 @@
         <v>2012</v>
       </c>
       <c r="F496" t="n">
-        <v>31631250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
